--- a/2020/cursos/etica/Octavo/Listados Etica 8-4.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427DE91B-DC2C-46D0-B450-CD8601D39527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB92B3-19F5-4634-B98B-D819BD4833E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -155,7 +155,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
-  <dimension ref="A3:D39"/>
+  <dimension ref="A3:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +559,10 @@
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -564,8 +575,19 @@
       <c r="D3" s="6">
         <v>43986</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="6">
+        <v>44007</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1921</v>
       </c>
@@ -578,8 +600,19 @@
       <c r="D4" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1877</v>
       </c>
@@ -592,8 +625,19 @@
       <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>2256</v>
       </c>
@@ -603,8 +647,17 @@
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1967</v>
       </c>
@@ -617,8 +670,19 @@
       <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3666</v>
       </c>
@@ -628,8 +692,19 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>4273</v>
       </c>
@@ -639,8 +714,17 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2215</v>
       </c>
@@ -650,8 +734,19 @@
       <c r="C10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>1958</v>
       </c>
@@ -664,8 +759,19 @@
       <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>1895</v>
       </c>
@@ -678,8 +784,19 @@
       <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>4150</v>
       </c>
@@ -692,8 +809,17 @@
       <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>4274</v>
       </c>
@@ -706,8 +832,19 @@
       <c r="D14" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>1904</v>
       </c>
@@ -720,8 +857,19 @@
       <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>626</v>
       </c>
@@ -731,8 +879,16 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>683</v>
       </c>
@@ -742,8 +898,17 @@
       <c r="C17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3233</v>
       </c>
@@ -756,8 +921,19 @@
       <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>4071</v>
       </c>
@@ -770,8 +946,19 @@
       <c r="D19" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>2305</v>
       </c>
@@ -784,8 +971,19 @@
       <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>1717</v>
       </c>
@@ -795,8 +993,17 @@
       <c r="C21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>1881</v>
       </c>
@@ -809,8 +1016,19 @@
       <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>2288</v>
       </c>
@@ -823,8 +1041,19 @@
       <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3521</v>
       </c>
@@ -834,8 +1063,19 @@
       <c r="C24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>2080</v>
       </c>
@@ -848,8 +1088,19 @@
       <c r="D25" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1930</v>
       </c>
@@ -862,8 +1113,19 @@
       <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>2620</v>
       </c>
@@ -876,8 +1138,19 @@
       <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1901</v>
       </c>
@@ -890,8 +1163,19 @@
       <c r="D28" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1911</v>
       </c>
@@ -904,8 +1188,19 @@
       <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>1673</v>
       </c>
@@ -918,8 +1213,17 @@
       <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>1887</v>
       </c>
@@ -929,8 +1233,19 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>1647</v>
       </c>
@@ -940,8 +1255,17 @@
       <c r="C32" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>1946</v>
       </c>
@@ -954,8 +1278,19 @@
       <c r="D33" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>1882</v>
       </c>
@@ -968,8 +1303,19 @@
       <c r="D34" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>1963</v>
       </c>
@@ -979,8 +1325,19 @@
       <c r="C35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>4428</v>
       </c>
@@ -993,8 +1350,19 @@
       <c r="D36" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>1902</v>
       </c>
@@ -1004,8 +1372,17 @@
       <c r="C37" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C38" s="7" t="s">
         <v>3</v>
       </c>
@@ -1013,8 +1390,35 @@
         <f>COUNTA(D4:D37)</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+      <c r="E38" s="7">
+        <f t="shared" ref="E38:J38" si="0">COUNTA(E4:E37)</f>
+        <v>25</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
     </row>

--- a/2020/cursos/etica/Octavo/Listados Etica 8-4.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAB92B3-19F5-4634-B98B-D819BD4833E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A723BC-8D13-4BF2-AA90-EAF94CD911FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -207,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,6 +231,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
   <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +581,9 @@
       <c r="E3" s="6">
         <v>44007</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6">
+        <v>44021</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -603,7 +608,9 @@
       <c r="E4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -628,7 +635,9 @@
       <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -648,7 +657,9 @@
         <v>6</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -695,7 +706,9 @@
       <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -715,7 +728,9 @@
         <v>9</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -762,7 +777,9 @@
       <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -787,7 +804,9 @@
       <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -810,7 +829,9 @@
         <v>38</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -835,7 +856,9 @@
       <c r="E14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -860,7 +883,9 @@
       <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -879,7 +904,6 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -924,7 +948,9 @@
       <c r="E18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -949,7 +975,9 @@
       <c r="E19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -974,7 +1002,9 @@
       <c r="E20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1019,7 +1049,9 @@
       <c r="E22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -1044,7 +1076,9 @@
       <c r="E23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
@@ -1066,7 +1100,9 @@
       <c r="E24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -1091,7 +1127,9 @@
       <c r="E25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -1116,7 +1154,9 @@
       <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -1141,7 +1181,9 @@
       <c r="E27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -1166,7 +1208,9 @@
       <c r="E28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -1191,7 +1235,9 @@
       <c r="E29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -1214,7 +1260,9 @@
         <v>38</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1236,7 +1284,9 @@
       <c r="E31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1281,7 +1331,9 @@
       <c r="E33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1306,7 +1358,9 @@
       <c r="E34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -1328,7 +1382,9 @@
       <c r="E35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -1373,7 +1429,9 @@
         <v>37</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -1396,7 +1454,7 @@
       </c>
       <c r="F38" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>

--- a/2020/cursos/etica/Octavo/Listados Etica 8-4.xlsx
+++ b/2020/cursos/etica/Octavo/Listados Etica 8-4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\GitHub\liceopatria.github.io\2020\cursos\etica\Octavo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A723BC-8D13-4BF2-AA90-EAF94CD911FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAD29B9-4A77-441C-8333-D340434D6028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
+    <workbookView xWindow="5910" yWindow="3345" windowWidth="13935" windowHeight="10395" xr2:uid="{1EA2306F-59E9-4E0F-8411-BCE0FE820673}"/>
   </bookViews>
   <sheets>
     <sheet name="Asistencia" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="39">
   <si>
     <t>Codigo</t>
   </si>
@@ -552,8 +552,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD09D4E-2993-4F11-BB0F-40F78899A78D}">
   <dimension ref="A3:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,8 +563,10 @@
     <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -584,7 +588,9 @@
       <c r="F3" s="6">
         <v>44021</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6">
+        <v>44035</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -611,7 +617,9 @@
       <c r="F4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -638,7 +646,9 @@
       <c r="F5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -660,7 +670,9 @@
       <c r="F6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -685,7 +697,9 @@
         <v>38</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -709,7 +723,9 @@
       <c r="F8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -731,7 +747,9 @@
       <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -753,7 +771,9 @@
         <v>38</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -780,7 +800,9 @@
       <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -807,7 +829,9 @@
       <c r="F12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -859,7 +883,9 @@
       <c r="F14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -951,7 +977,9 @@
       <c r="F18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -978,7 +1006,9 @@
       <c r="F19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1052,7 +1082,9 @@
       <c r="F22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1079,7 +1111,9 @@
       <c r="F23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1103,7 +1137,9 @@
       <c r="F24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1130,7 +1166,9 @@
       <c r="F25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1157,7 +1195,9 @@
       <c r="F26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1184,7 +1224,9 @@
       <c r="F27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1211,7 +1253,9 @@
       <c r="F28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1238,7 +1282,9 @@
       <c r="F29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1263,7 +1309,9 @@
       <c r="F30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1287,7 +1335,9 @@
       <c r="F31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1307,7 +1357,9 @@
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1334,7 +1386,9 @@
       <c r="F33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1361,7 +1415,9 @@
       <c r="F34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -1385,7 +1441,9 @@
       <c r="F35" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -1432,7 +1490,9 @@
       <c r="F37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -1458,7 +1518,7 @@
       </c>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="0"/>
